--- a/plugins/src/main/resources/Connecticut Unemployment Data.xlsx
+++ b/plugins/src/main/resources/Connecticut Unemployment Data.xlsx
@@ -29,7 +29,7 @@
     <t>New Haven</t>
   </si>
   <si>
-    <t>New England</t>
+    <t>New London</t>
   </si>
   <si>
     <t>Middlesex</t>
